--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Paulo Ramos\Nueva carpeta (3)\Unidad de Análisis y Estudios Fiscales UAEF\Investigador Econométrico 9\Optimal Investment\Nonlinear Regression FP Cobb Douglas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F833092D-3228-478A-BA34-4206B4EE0A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F59B9-3E00-4C2A-BAA8-684A7D2E6E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6221DD04-E666-421F-BE82-D68BFC5AB55D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6221DD04-E666-421F-BE82-D68BFC5AB55D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>capital</t>
   </si>
@@ -68,6 +69,18 @@
   </si>
   <si>
     <t>labo_hat</t>
+  </si>
+  <si>
+    <t>lnoutputyhat_ces</t>
+  </si>
+  <si>
+    <t>lnoutputyhat_cd</t>
+  </si>
+  <si>
+    <t>ex_p</t>
+  </si>
+  <si>
+    <t>ex_ty</t>
   </si>
 </sst>
 </file>
@@ -105,7 +118,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +143,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -144,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -154,6 +197,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -177,6 +237,1497 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-BO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lnoutputyhat_ces</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.1237168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4450294000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0153482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2488418000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9038352999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3553274000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2353885999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2909755000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2259129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7876593999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9336441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6263927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3707490999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0321506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3028561000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2076017999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5258216</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2696410999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1246865000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1672026999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1060565000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2063210999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2228420999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8374570000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.472756</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4433661999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9068719000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6077547999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8378515000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6249041000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2045480999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0010016999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4947655000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1326339000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1829491999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1463792000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.055911</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6743401000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7835464000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3507727</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8704136999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8215278000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.2892887999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6074293000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1256651</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.7049032</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4708773000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3419340999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5341309999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.2102763000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1057774</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7439895999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6707581999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.5972442</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7622264000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4310662999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.6600288000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4888299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.4613205999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9364764000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.3490167999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.0031746999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1415676000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2839806</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.4634789000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3815506000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.3425509999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.6972676</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3750116000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1958964999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2340605</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.4138126</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.4809299999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.6124242</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0692346000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.4357296000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.1803661999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1193447999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5278573999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.2413305000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.5310431000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0224880000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.4575009000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3538596000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.3552391000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.8559774999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.4586530999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2952561</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3623487000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5401746000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.7237922000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.7060433000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.4544573000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.8939626000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.1257960999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.6419374000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.7987628999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.5562333000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.2946077000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.1587310000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E71B-46D5-B4BA-1F183349399F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lnoutputyhat_cd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.3292766999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9906921999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6650446999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5926787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3158821999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7141934000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8819102000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4056057000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99782490000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0786269000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9018906000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1943064000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3365236999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3668999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9758233000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6339074999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0227633000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8688586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9440243000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5015381999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7935547999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5203684000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3868144999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3794064000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9940538999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8521454999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2605344000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7275330000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5353336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8389357</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1367807000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5342725000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.263887</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7232470000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.87585157999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0085736000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7989877999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2124752999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9701092</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2549610000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6712167999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5052298999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8715071999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3504491000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.7000424000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2586541000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0971473</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.1021793999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9977995000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5316413999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.7351312000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0766648999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2888221</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.9691380000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.3544650000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3727203000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2395727000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2910664999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.2378324000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.2604209000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6395810000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.6318559000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.7499416999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.7143644</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1945407000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.9783498000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.95096</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.3719296999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.9258430999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1629223</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.4786115</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1793111000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.3838889000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.8975681999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.8186363999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.7066485</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.8847863999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.3947129</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.0847180000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.7612116999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.8567575000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.7372768999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.2752723000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0764682999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.8846348000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5154234999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.9365334000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.232389</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1862045000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8939119</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.8191290000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.4447397999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0315555999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6951076</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.6609186999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2174858</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.7671473</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1161273</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.5349918999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9651706999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E71B-46D5-B4BA-1F183349399F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="546528960"/>
+        <c:axId val="694024080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="546528960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-BO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694024080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694024080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-BO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546528960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-BO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-BO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -192,8 +1743,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -259,6 +1810,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -271,7 +1823,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -283,7 +1835,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -295,7 +1847,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -309,7 +1861,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -322,7 +1874,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -336,7 +1888,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -348,7 +1900,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -364,7 +1916,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -377,7 +1929,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -391,7 +1943,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -403,7 +1955,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -425,6 +1977,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -437,7 +1990,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -449,7 +2002,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -461,7 +2014,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -473,7 +2026,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -485,7 +2038,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -499,7 +2052,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -512,7 +2065,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -530,7 +2083,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -543,7 +2096,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -555,7 +2108,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -571,7 +2124,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -583,7 +2136,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -597,7 +2150,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -610,7 +2163,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -628,7 +2181,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -641,7 +2194,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -653,7 +2206,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -691,6 +2244,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -703,7 +2257,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -715,7 +2269,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -727,7 +2281,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -739,7 +2293,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -751,7 +2305,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -763,7 +2317,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -797,6 +2351,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -811,7 +2366,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -824,7 +2379,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -838,7 +2393,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -852,7 +2407,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -866,7 +2421,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -879,7 +2434,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -893,7 +2448,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -907,7 +2462,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -920,7 +2475,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -934,7 +2489,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -946,7 +2501,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -970,6 +2525,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -982,7 +2538,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -994,7 +2550,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1008,7 +2564,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1023,7 +2579,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1038,7 +2594,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1051,7 +2607,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1065,7 +2621,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1079,7 +2635,7 @@
                                           <a:schemeClr val="dk1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1092,7 +2648,7 @@
                                           <a:schemeClr val="dk1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1106,7 +2662,7 @@
                                           <a:schemeClr val="dk1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1118,7 +2674,7 @@
                                           <a:schemeClr val="dk1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1140,7 +2696,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1153,7 +2709,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1167,7 +2723,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1234,7 +2790,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1246,7 +2802,7 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1260,7 +2816,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1275,7 +2831,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1290,7 +2846,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1303,7 +2859,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1317,7 +2873,7 @@
                                       <a:schemeClr val="dk1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1331,7 +2887,7 @@
                                           <a:schemeClr val="dk1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1344,7 +2900,7 @@
                                           <a:schemeClr val="dk1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1358,7 +2914,7 @@
                                           <a:schemeClr val="dk1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1380,7 +2936,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1393,7 +2949,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1407,7 +2963,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1419,7 +2975,7 @@
                                   <a:schemeClr val="dk1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1448,7 +3004,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1717,6 +3273,47 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E380ADF-9268-41C9-B60C-21FF1D661114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5475,8 +7072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6919E03F-69A5-43CC-B683-535F3D0285C1}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8624,6 +10221,3159 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6D1361-596E-45B1-9FF1-ADEAA1ADF37C}">
+  <dimension ref="A1:I103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.3123746</v>
+      </c>
+      <c r="B2">
+        <v>3.1635650000000002</v>
+      </c>
+      <c r="C2">
+        <v>2.9334509999999998</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3.1237168</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3.3292766999999999</v>
+      </c>
+      <c r="F2" s="10">
+        <v>22.730709999999998</v>
+      </c>
+      <c r="G2" s="11">
+        <v>22.730708</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H33" si="0">EXP(D2)</f>
+        <v>22.730708326377432</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I33" si="1">EXP(E2)</f>
+        <v>27.918141207072669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.2570869999999998</v>
+      </c>
+      <c r="B3">
+        <v>1.698008</v>
+      </c>
+      <c r="C3">
+        <v>4.6137160000000002</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4.4450294000000001</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3.9906921999999998</v>
+      </c>
+      <c r="F3" s="10">
+        <v>85.202380000000005</v>
+      </c>
+      <c r="G3" s="11">
+        <v>85.202382999999998</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>85.202382750553042</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="1"/>
+        <v>54.092319110684926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.1247439</v>
+      </c>
+      <c r="B4">
+        <v>0.27493069999999997</v>
+      </c>
+      <c r="C4">
+        <v>1.6540049999999999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2.0153482</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.6650446999999999</v>
+      </c>
+      <c r="F4" s="10">
+        <v>7.5033390000000004</v>
+      </c>
+      <c r="G4" s="11">
+        <v>7.5033393999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5033395892361225</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2859095246357315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.12899479999999999</v>
+      </c>
+      <c r="B5">
+        <v>1.720745</v>
+      </c>
+      <c r="C5">
+        <v>2.0253610000000002</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.2488418000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.5926787</v>
+      </c>
+      <c r="F5" s="10">
+        <v>9.4767530000000004</v>
+      </c>
+      <c r="G5" s="11">
+        <v>9.4767537999999991</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4767535018104603</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>13.365525928565543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3.8143280000000002</v>
+      </c>
+      <c r="B6">
+        <v>0.26000430000000002</v>
+      </c>
+      <c r="C6">
+        <v>3.1650649999999998</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.9038352999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.3158821999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>18.243980000000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>18.243983</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>18.243982506758947</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>27.546684953712695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.1433489</v>
+      </c>
+      <c r="B7">
+        <v>1.980032</v>
+      </c>
+      <c r="C7">
+        <v>1.3722190000000001</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.3553274000000002</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.7141934000000001</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10.54158</v>
+      </c>
+      <c r="G7" s="11">
+        <v>10.54158</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>10.54157960994146</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>15.092431605647128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.93156309999999998</v>
+      </c>
+      <c r="B8">
+        <v>0.43689129999999998</v>
+      </c>
+      <c r="C8">
+        <v>2.92082</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3.2353885999999998</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.8819102000000001</v>
+      </c>
+      <c r="F8" s="10">
+        <v>25.416250000000002</v>
+      </c>
+      <c r="G8" s="11">
+        <v>25.416246000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>25.416246613477707</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>17.848334525874609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.083574</v>
+      </c>
+      <c r="B9">
+        <v>0.1442706</v>
+      </c>
+      <c r="C9">
+        <v>2.6989939999999999</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.2909755000000001</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.4056057000000002</v>
+      </c>
+      <c r="F9" s="10">
+        <v>9.8845759999999991</v>
+      </c>
+      <c r="G9" s="11">
+        <v>9.8845755999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8845753829059184</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>11.085142520004359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.16473640000000001</v>
+      </c>
+      <c r="B10">
+        <v>5.4537099999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.197918</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.2259129</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.99782490000000001</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3.4072749999999998</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3.4072752999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.40727516493242</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7123757191716327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.22176670000000001</v>
+      </c>
+      <c r="B11">
+        <v>2.6794280000000001</v>
+      </c>
+      <c r="C11">
+        <v>3.097216</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2.7876593999999999</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3.0786269000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <v>16.24296</v>
+      </c>
+      <c r="G11" s="11">
+        <v>16.242958000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>16.242957009103598</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>21.7285464361671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.5201089999999999</v>
+      </c>
+      <c r="B12">
+        <v>0.28039500000000001</v>
+      </c>
+      <c r="C12">
+        <v>2.5940310000000002</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2.9336441</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2.9018906000000002</v>
+      </c>
+      <c r="F12" s="10">
+        <v>18.795999999999999</v>
+      </c>
+      <c r="G12" s="11">
+        <v>18.795999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>18.796000352602263</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>18.208537909702542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.1234262</v>
+      </c>
+      <c r="B13">
+        <v>0.1077196</v>
+      </c>
+      <c r="C13">
+        <v>1.5193399999999999</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.6263927</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.1943064000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>5.0854970000000002</v>
+      </c>
+      <c r="G13" s="11">
+        <v>5.0854967000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0854966787448745</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3012672172877346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.15240010000000001</v>
+      </c>
+      <c r="B14">
+        <v>0.87151500000000004</v>
+      </c>
+      <c r="C14">
+        <v>3.113661</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2.3707490999999998</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2.3365236999999999</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10.705410000000001</v>
+      </c>
+      <c r="G14" s="11">
+        <v>10.705409</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>10.705408702845848</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>10.345210924312035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3.7016619999999998</v>
+      </c>
+      <c r="B15">
+        <v>0.29678300000000002</v>
+      </c>
+      <c r="C15">
+        <v>4.3911049999999996</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3.0321506</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3.3668999999999998</v>
+      </c>
+      <c r="F15" s="10">
+        <v>20.741790000000002</v>
+      </c>
+      <c r="G15" s="11">
+        <v>20.741792</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>20.741791955308198</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>28.988523201972502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.0798300000000001</v>
+      </c>
+      <c r="B16">
+        <v>0.45614650000000001</v>
+      </c>
+      <c r="C16">
+        <v>3.784592</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3.3028561000000001</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.9758233000000001</v>
+      </c>
+      <c r="F16" s="10">
+        <v>27.190190000000001</v>
+      </c>
+      <c r="G16" s="11">
+        <v>27.190187000000002</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>27.19018601709563</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>19.605758027387285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.1232347</v>
+      </c>
+      <c r="B17">
+        <v>1.9559280000000001</v>
+      </c>
+      <c r="C17">
+        <v>3.206696</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2.2076017999999999</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.6339074999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <v>9.0938820000000007</v>
+      </c>
+      <c r="G17" s="11">
+        <v>9.0938815000000002</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0938812749417686</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>13.928087712331296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.4588158</v>
+      </c>
+      <c r="B18">
+        <v>8.7386599999999994</v>
+      </c>
+      <c r="C18">
+        <v>4.72858</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3.5258216</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4.0227633000000003</v>
+      </c>
+      <c r="F18" s="10">
+        <v>33.981679999999997</v>
+      </c>
+      <c r="G18" s="11">
+        <v>33.981681999999999</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>33.981681499639272</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>55.855237550546015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.1723461</v>
+      </c>
+      <c r="B19">
+        <v>0.30110100000000001</v>
+      </c>
+      <c r="C19">
+        <v>1.8190539999999999</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2.2696410999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.8688586</v>
+      </c>
+      <c r="F19" s="10">
+        <v>9.6759280000000008</v>
+      </c>
+      <c r="G19" s="11">
+        <v>9.6759277000000008</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6759275004440823</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4808948826256785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3.9784809999999999</v>
+      </c>
+      <c r="B20">
+        <v>0.1179924</v>
+      </c>
+      <c r="C20">
+        <v>1.474243</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2.1246865000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.9440243000000001</v>
+      </c>
+      <c r="F20" s="10">
+        <v>8.3702740000000002</v>
+      </c>
+      <c r="G20" s="11">
+        <v>8.3702734000000003</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3702729961753466</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>18.992122729220554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11.85148</v>
+      </c>
+      <c r="B21">
+        <v>0.92266320000000002</v>
+      </c>
+      <c r="C21">
+        <v>4.4337679999999997</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4.1672026999999998</v>
+      </c>
+      <c r="E21" s="9">
+        <v>4.5015381999999997</v>
+      </c>
+      <c r="F21" s="10">
+        <v>64.534679999999994</v>
+      </c>
+      <c r="G21" s="11">
+        <v>64.534674999999993</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>64.534676532859351</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>90.155702199444363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2.5811989999999998</v>
+      </c>
+      <c r="B22">
+        <v>1.0001249999999999</v>
+      </c>
+      <c r="C22">
+        <v>4.2897720000000001</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4.1060565000000002</v>
+      </c>
+      <c r="E22" s="9">
+        <v>3.7935547999999999</v>
+      </c>
+      <c r="F22" s="10">
+        <v>60.706850000000003</v>
+      </c>
+      <c r="G22" s="11">
+        <v>60.706848000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>60.706847463623355</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>44.414002884597551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.1238654</v>
+      </c>
+      <c r="B23">
+        <v>1.5485150000000001</v>
+      </c>
+      <c r="C23">
+        <v>1.9164939999999999</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2.2063210999999998</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.5203684000000002</v>
+      </c>
+      <c r="F23" s="10">
+        <v>9.0822420000000008</v>
+      </c>
+      <c r="G23" s="11">
+        <v>9.0822426000000007</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0822421958680959</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>12.433176202087607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.12332750000000001</v>
+      </c>
+      <c r="B24">
+        <v>8.895391</v>
+      </c>
+      <c r="C24">
+        <v>1.762829</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2.2228420999999998</v>
+      </c>
+      <c r="E24" s="9">
+        <v>3.3868144999999998</v>
+      </c>
+      <c r="F24" s="10">
+        <v>9.2335360000000009</v>
+      </c>
+      <c r="G24" s="11">
+        <v>9.2335361000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2335362424469789</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>29.57160173600964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.93237970000000003</v>
+      </c>
+      <c r="B25">
+        <v>1.188151</v>
+      </c>
+      <c r="C25">
+        <v>3.793428</v>
+      </c>
+      <c r="D25" s="8">
+        <v>3.8374570000000001</v>
+      </c>
+      <c r="E25" s="9">
+        <v>3.3794064000000001</v>
+      </c>
+      <c r="F25" s="10">
+        <v>46.407310000000003</v>
+      </c>
+      <c r="G25" s="11">
+        <v>46.407311999999997</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>46.407310467458686</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>29.353341797089424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1.1029070000000001</v>
+      </c>
+      <c r="B26">
+        <v>6.1921799999999999E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.1756549999999999</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.472756</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1.9940538999999999</v>
+      </c>
+      <c r="F26" s="10">
+        <v>4.3612380000000002</v>
+      </c>
+      <c r="G26" s="11">
+        <v>4.3612384000000004</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3612381656819856</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3452503980662573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2.3621639999999999</v>
+      </c>
+      <c r="B27">
+        <v>0.16412940000000001</v>
+      </c>
+      <c r="C27">
+        <v>3.1201699999999999</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2.4433661999999998</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.8521454999999998</v>
+      </c>
+      <c r="F27" s="10">
+        <v>11.51173</v>
+      </c>
+      <c r="G27" s="11">
+        <v>11.511725999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>11.511726367788786</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>17.324912594279354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3.3868040000000001</v>
+      </c>
+      <c r="B28">
+        <v>0.26157599999999998</v>
+      </c>
+      <c r="C28">
+        <v>1.859672</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2.9068719000000001</v>
+      </c>
+      <c r="E28" s="9">
+        <v>3.2605344000000001</v>
+      </c>
+      <c r="F28" s="10">
+        <v>18.299469999999999</v>
+      </c>
+      <c r="G28" s="11">
+        <v>18.299465999999999</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>18.299466382573172</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>26.063461735487159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.1882935</v>
+      </c>
+      <c r="B29">
+        <v>1.55359</v>
+      </c>
+      <c r="C29">
+        <v>3.7769370000000002</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2.6077547999999999</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2.7275330000000002</v>
+      </c>
+      <c r="F29" s="10">
+        <v>13.56855</v>
+      </c>
+      <c r="G29" s="11">
+        <v>13.568553</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>13.568552513105095</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>15.295107407941286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.71485940000000003</v>
+      </c>
+      <c r="B30">
+        <v>0.2824952</v>
+      </c>
+      <c r="C30">
+        <v>2.0701779999999999</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2.8378515000000002</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2.5353336</v>
+      </c>
+      <c r="F30" s="10">
+        <v>17.079029999999999</v>
+      </c>
+      <c r="G30" s="11">
+        <v>17.079031000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>17.079031790247335</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>12.620640391480611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.1896505</v>
+      </c>
+      <c r="B31">
+        <v>1.930348</v>
+      </c>
+      <c r="C31">
+        <v>2.676625</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2.6249041000000002</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2.8389357</v>
+      </c>
+      <c r="F31" s="10">
+        <v>13.80325</v>
+      </c>
+      <c r="G31" s="11">
+        <v>13.803250999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>13.803250390879647</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>17.09755891825554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.1301128</v>
+      </c>
+      <c r="B32">
+        <v>0.68155690000000002</v>
+      </c>
+      <c r="C32">
+        <v>2.2357969999999998</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2.2045480999999998</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2.1367807000000001</v>
+      </c>
+      <c r="F32" s="10">
+        <v>9.0661539999999992</v>
+      </c>
+      <c r="G32" s="11">
+        <v>9.0661535000000004</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0661536471678108</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>8.472119385731153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1.2275</v>
+      </c>
+      <c r="B33">
+        <v>1.2367220000000001</v>
+      </c>
+      <c r="C33">
+        <v>5.2821509999999998</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4.0010016999999998</v>
+      </c>
+      <c r="E33" s="9">
+        <v>3.5342725000000002</v>
+      </c>
+      <c r="F33" s="10">
+        <v>54.65287</v>
+      </c>
+      <c r="G33" s="11">
+        <v>54.65287</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>54.652868401151665</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>34.270074164249301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1.697932</v>
+      </c>
+      <c r="B34">
+        <v>0.52088389999999996</v>
+      </c>
+      <c r="C34">
+        <v>3.293793</v>
+      </c>
+      <c r="D34" s="8">
+        <v>3.4947655000000002</v>
+      </c>
+      <c r="E34" s="9">
+        <v>3.263887</v>
+      </c>
+      <c r="F34" s="10">
+        <v>32.94256</v>
+      </c>
+      <c r="G34" s="11">
+        <v>32.942563</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" ref="H34:H65" si="2">EXP(D34)</f>
+        <v>32.942562016381103</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I65" si="3">EXP(E34)</f>
+        <v>26.150988736830829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2.5048339999999998</v>
+      </c>
+      <c r="B35">
+        <v>0.1194963</v>
+      </c>
+      <c r="C35">
+        <v>2.9947940000000002</v>
+      </c>
+      <c r="D35" s="8">
+        <v>2.1326339000000001</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2.7232470000000002</v>
+      </c>
+      <c r="F35" s="10">
+        <v>8.4370600000000007</v>
+      </c>
+      <c r="G35" s="11">
+        <v>8.4370604</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4370599435498423</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>15.229692861102352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.12728890000000001</v>
+      </c>
+      <c r="B36">
+        <v>5.5043399999999999E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.1865939999999999</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1.1829491999999999</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.87585157999999996</v>
+      </c>
+      <c r="F36" s="10">
+        <v>3.2639860000000001</v>
+      </c>
+      <c r="G36" s="11">
+        <v>3.2639860999999999</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2639861701288262</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4009189982552774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.33906989999999998</v>
+      </c>
+      <c r="B37">
+        <v>1.5298989999999999</v>
+      </c>
+      <c r="C37">
+        <v>2.6937120000000001</v>
+      </c>
+      <c r="D37" s="8">
+        <v>3.1463792000000002</v>
+      </c>
+      <c r="E37" s="9">
+        <v>3.0085736000000001</v>
+      </c>
+      <c r="F37" s="10">
+        <v>23.251719999999999</v>
+      </c>
+      <c r="G37" s="11">
+        <v>23.251722000000001</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="2"/>
+        <v>23.251722144001324</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>20.258482606722108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.32534180000000001</v>
+      </c>
+      <c r="B38">
+        <v>1.045175</v>
+      </c>
+      <c r="C38">
+        <v>3.6276839999999999</v>
+      </c>
+      <c r="D38" s="8">
+        <v>3.055911</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2.7989877999999999</v>
+      </c>
+      <c r="F38" s="10">
+        <v>21.24053</v>
+      </c>
+      <c r="G38" s="11">
+        <v>21.240527</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="2"/>
+        <v>21.240526835555492</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="3"/>
+        <v>16.428009920965636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.90538850000000004</v>
+      </c>
+      <c r="B39">
+        <v>0.87408799999999998</v>
+      </c>
+      <c r="C39">
+        <v>3.698169</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3.6743401000000002</v>
+      </c>
+      <c r="E39" s="9">
+        <v>3.2124752999999999</v>
+      </c>
+      <c r="F39" s="10">
+        <v>39.422629999999998</v>
+      </c>
+      <c r="G39" s="11">
+        <v>39.422634000000002</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="2"/>
+        <v>39.422633275965467</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="3"/>
+        <v>24.84049787148788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.22278870000000001</v>
+      </c>
+      <c r="B40">
+        <v>2.1439349999999999</v>
+      </c>
+      <c r="C40">
+        <v>2.52298</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2.7835464000000001</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2.9701092</v>
+      </c>
+      <c r="F40" s="10">
+        <v>16.176290000000002</v>
+      </c>
+      <c r="G40" s="11">
+        <v>16.176286999999999</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="2"/>
+        <v>16.176286927933919</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="3"/>
+        <v>19.494048229872298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2.1411210000000001</v>
+      </c>
+      <c r="B41">
+        <v>5.43651E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.1645479999999999</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.3507727</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2.2549610000000002</v>
+      </c>
+      <c r="F41" s="10">
+        <v>3.8604080000000001</v>
+      </c>
+      <c r="G41" s="11">
+        <v>3.8604075999999998</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8604073152686533</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="3"/>
+        <v>9.5349214409591632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.71217819999999998</v>
+      </c>
+      <c r="B42">
+        <v>2.7895080000000001</v>
+      </c>
+      <c r="C42">
+        <v>4.0922320000000001</v>
+      </c>
+      <c r="D42" s="8">
+        <v>3.8704136999999998</v>
+      </c>
+      <c r="E42" s="9">
+        <v>3.6712167999999998</v>
+      </c>
+      <c r="F42" s="10">
+        <v>47.962220000000002</v>
+      </c>
+      <c r="G42" s="11">
+        <v>47.962223999999999</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="2"/>
+        <v>47.962223949121004</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="3"/>
+        <v>39.299696649374788</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.72183339999999996</v>
+      </c>
+      <c r="B43">
+        <v>1.9708669999999999</v>
+      </c>
+      <c r="C43">
+        <v>4.0865660000000004</v>
+      </c>
+      <c r="D43" s="8">
+        <v>3.8215278000000001</v>
+      </c>
+      <c r="E43" s="9">
+        <v>3.5052298999999998</v>
+      </c>
+      <c r="F43" s="10">
+        <v>45.673940000000002</v>
+      </c>
+      <c r="G43" s="11">
+        <v>45.673937000000002</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="2"/>
+        <v>45.673935681489155</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="3"/>
+        <v>33.289096135941705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6.4037269999999999</v>
+      </c>
+      <c r="B44">
+        <v>3.5687950000000002</v>
+      </c>
+      <c r="C44">
+        <v>5.0959750000000001</v>
+      </c>
+      <c r="D44" s="8">
+        <v>5.2892887999999996</v>
+      </c>
+      <c r="E44" s="9">
+        <v>4.8715071999999999</v>
+      </c>
+      <c r="F44" s="10">
+        <v>198.20240000000001</v>
+      </c>
+      <c r="G44" s="11">
+        <v>198.20241999999999</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="2"/>
+        <v>198.20241371493219</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="3"/>
+        <v>130.51748467867472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1.7855049999999999</v>
+      </c>
+      <c r="B45">
+        <v>0.58997359999999999</v>
+      </c>
+      <c r="C45">
+        <v>2.983565</v>
+      </c>
+      <c r="D45" s="8">
+        <v>3.6074293000000002</v>
+      </c>
+      <c r="E45" s="9">
+        <v>3.3504491000000001</v>
+      </c>
+      <c r="F45" s="10">
+        <v>36.87115</v>
+      </c>
+      <c r="G45" s="11">
+        <v>36.871146000000003</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="2"/>
+        <v>36.871146223304692</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="3"/>
+        <v>28.515537096246756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.64193730000000004</v>
+      </c>
+      <c r="B46">
+        <v>0.43766870000000002</v>
+      </c>
+      <c r="C46">
+        <v>2.9218700000000002</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3.1256651</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2.7000424000000001</v>
+      </c>
+      <c r="F46" s="10">
+        <v>22.775040000000001</v>
+      </c>
+      <c r="G46" s="11">
+        <v>22.775037000000001</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="2"/>
+        <v>22.775037734880609</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="3"/>
+        <v>14.880362638873253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1.07016</v>
+      </c>
+      <c r="B47">
+        <v>0.81319229999999998</v>
+      </c>
+      <c r="C47">
+        <v>3.7358899999999999</v>
+      </c>
+      <c r="D47" s="8">
+        <v>3.7049032</v>
+      </c>
+      <c r="E47" s="9">
+        <v>3.2586541000000002</v>
+      </c>
+      <c r="F47" s="10">
+        <v>40.64611</v>
+      </c>
+      <c r="G47" s="11">
+        <v>40.646112000000002</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="2"/>
+        <v>40.646112582742703</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="3"/>
+        <v>26.014500653572362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.1591851</v>
+      </c>
+      <c r="B48">
+        <v>3.8589479999999998</v>
+      </c>
+      <c r="C48">
+        <v>2.7707389999999998</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2.4708773000000002</v>
+      </c>
+      <c r="E48" s="9">
+        <v>3.0971473</v>
+      </c>
+      <c r="F48" s="10">
+        <v>11.83282</v>
+      </c>
+      <c r="G48" s="11">
+        <v>11.832824</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="2"/>
+        <v>11.83282323520444</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="3"/>
+        <v>22.134717422318573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1.157985</v>
+      </c>
+      <c r="B49">
+        <v>4.1086929999999997</v>
+      </c>
+      <c r="C49">
+        <v>4.2064789999999999</v>
+      </c>
+      <c r="D49" s="8">
+        <v>4.3419340999999996</v>
+      </c>
+      <c r="E49" s="9">
+        <v>4.1021793999999998</v>
+      </c>
+      <c r="F49" s="10">
+        <v>76.856039999999993</v>
+      </c>
+      <c r="G49" s="11">
+        <v>76.856043</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="2"/>
+        <v>76.856042954258768</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="3"/>
+        <v>60.471936625989443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.46323959999999997</v>
+      </c>
+      <c r="B50">
+        <v>8.2320259999999994</v>
+      </c>
+      <c r="C50">
+        <v>3.451775</v>
+      </c>
+      <c r="D50" s="8">
+        <v>3.5341309999999999</v>
+      </c>
+      <c r="E50" s="9">
+        <v>3.9977995000000002</v>
+      </c>
+      <c r="F50" s="10">
+        <v>34.265219999999999</v>
+      </c>
+      <c r="G50" s="11">
+        <v>34.265227000000003</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="2"/>
+        <v>34.265225291820869</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="3"/>
+        <v>54.478138894677905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.91698780000000002</v>
+      </c>
+      <c r="B51">
+        <v>12.28035</v>
+      </c>
+      <c r="C51">
+        <v>2.9212639999999999</v>
+      </c>
+      <c r="D51" s="8">
+        <v>4.2102763000000003</v>
+      </c>
+      <c r="E51" s="9">
+        <v>4.5316413999999998</v>
+      </c>
+      <c r="F51" s="10">
+        <v>67.375150000000005</v>
+      </c>
+      <c r="G51" s="11">
+        <v>67.375156000000004</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="2"/>
+        <v>67.375152993358995</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="3"/>
+        <v>92.910940007444395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.77163870000000001</v>
+      </c>
+      <c r="B52">
+        <v>0.39162530000000001</v>
+      </c>
+      <c r="C52">
+        <v>3.9013119999999999</v>
+      </c>
+      <c r="D52" s="8">
+        <v>3.1057774</v>
+      </c>
+      <c r="E52" s="9">
+        <v>2.7351312000000001</v>
+      </c>
+      <c r="F52" s="10">
+        <v>22.32657</v>
+      </c>
+      <c r="G52" s="11">
+        <v>22.326568999999999</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="2"/>
+        <v>22.326568905151163</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="3"/>
+        <v>15.411765326901262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.98290460000000002</v>
+      </c>
+      <c r="B53">
+        <v>8.19357E-2</v>
+      </c>
+      <c r="C53">
+        <v>2.4288310000000002</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1.7439895999999999</v>
+      </c>
+      <c r="E53" s="9">
+        <v>2.0766648999999999</v>
+      </c>
+      <c r="F53" s="10">
+        <v>5.7201190000000004</v>
+      </c>
+      <c r="G53" s="11">
+        <v>5.7201192000000001</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="2"/>
+        <v>5.7201189463961555</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9778176769942766</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0.66167189999999998</v>
+      </c>
+      <c r="B54">
+        <v>1.3893869999999999</v>
+      </c>
+      <c r="C54">
+        <v>3.3070300000000001</v>
+      </c>
+      <c r="D54" s="8">
+        <v>3.6707581999999999</v>
+      </c>
+      <c r="E54" s="9">
+        <v>3.2888221</v>
+      </c>
+      <c r="F54" s="10">
+        <v>39.281680000000001</v>
+      </c>
+      <c r="G54" s="11">
+        <v>39.281675999999997</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="2"/>
+        <v>39.281677940497126</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="3"/>
+        <v>26.811264061033246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.49552249999999998</v>
+      </c>
+      <c r="B55">
+        <v>7.2702980000000004</v>
+      </c>
+      <c r="C55">
+        <v>2.869548</v>
+      </c>
+      <c r="D55" s="8">
+        <v>3.5972442</v>
+      </c>
+      <c r="E55" s="9">
+        <v>3.9691380000000001</v>
+      </c>
+      <c r="F55" s="10">
+        <v>36.497520000000002</v>
+      </c>
+      <c r="G55" s="11">
+        <v>36.497517999999999</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="2"/>
+        <v>36.497515873058255</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="3"/>
+        <v>52.938877853356317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2.003288</v>
+      </c>
+      <c r="B56">
+        <v>3.972791</v>
+      </c>
+      <c r="C56">
+        <v>5.2600790000000002</v>
+      </c>
+      <c r="D56" s="8">
+        <v>4.7622264000000003</v>
+      </c>
+      <c r="E56" s="9">
+        <v>4.3544650000000003</v>
+      </c>
+      <c r="F56" s="10">
+        <v>117.0061</v>
+      </c>
+      <c r="G56" s="11">
+        <v>117.00614</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="2"/>
+        <v>117.00613858969234</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="3"/>
+        <v>77.825177727001886</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>6.9992590000000003</v>
+      </c>
+      <c r="B57">
+        <v>0.1600463</v>
+      </c>
+      <c r="C57">
+        <v>2.1012279999999999</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2.4310662999999999</v>
+      </c>
+      <c r="E57" s="9">
+        <v>3.3727203000000001</v>
+      </c>
+      <c r="F57" s="10">
+        <v>11.371</v>
+      </c>
+      <c r="G57" s="11">
+        <v>11.371001</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="2"/>
+        <v>11.371000515759167</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="3"/>
+        <v>29.157737063595413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1.152298</v>
+      </c>
+      <c r="B58">
+        <v>0.72742680000000004</v>
+      </c>
+      <c r="C58">
+        <v>4.0401540000000002</v>
+      </c>
+      <c r="D58" s="8">
+        <v>3.6600288000000001</v>
+      </c>
+      <c r="E58" s="9">
+        <v>3.2395727000000001</v>
+      </c>
+      <c r="F58" s="10">
+        <v>38.862459999999999</v>
+      </c>
+      <c r="G58" s="11">
+        <v>38.862461000000003</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="2"/>
+        <v>38.862462094123892</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="3"/>
+        <v>25.522813518757896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2.0012249999999998</v>
+      </c>
+      <c r="B59">
+        <v>6.2498400000000003E-2</v>
+      </c>
+      <c r="C59">
+        <v>1.431568</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1.4888299</v>
+      </c>
+      <c r="E59" s="9">
+        <v>2.2910664999999999</v>
+      </c>
+      <c r="F59" s="10">
+        <v>4.4319069999999998</v>
+      </c>
+      <c r="G59" s="11">
+        <v>4.4319069999999998</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4319067098416935</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="3"/>
+        <v>9.8854749201940866</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1.2947390000000001</v>
+      </c>
+      <c r="B60">
+        <v>4.8349640000000003</v>
+      </c>
+      <c r="C60">
+        <v>3.9465859999999999</v>
+      </c>
+      <c r="D60" s="8">
+        <v>4.4613205999999996</v>
+      </c>
+      <c r="E60" s="9">
+        <v>4.2378324000000003</v>
+      </c>
+      <c r="F60" s="10">
+        <v>86.601799999999997</v>
+      </c>
+      <c r="G60" s="11">
+        <v>86.601798000000002</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="2"/>
+        <v>86.601799950482842</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="3"/>
+        <v>69.257566317400475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3.2803360000000001</v>
+      </c>
+      <c r="B61">
+        <v>0.269899</v>
+      </c>
+      <c r="C61">
+        <v>3.0511659999999998</v>
+      </c>
+      <c r="D61" s="8">
+        <v>2.9364764000000001</v>
+      </c>
+      <c r="E61" s="9">
+        <v>3.2604209000000002</v>
+      </c>
+      <c r="F61" s="10">
+        <v>18.849309999999999</v>
+      </c>
+      <c r="G61" s="11">
+        <v>18.849311</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="2"/>
+        <v>18.849311725663593</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="3"/>
+        <v>26.06050370045185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1.6735530000000001</v>
+      </c>
+      <c r="B62">
+        <v>0.15039150000000001</v>
+      </c>
+      <c r="C62">
+        <v>1.7576350000000001</v>
+      </c>
+      <c r="D62" s="8">
+        <v>2.3490167999999998</v>
+      </c>
+      <c r="E62" s="9">
+        <v>2.6395810000000002</v>
+      </c>
+      <c r="F62" s="10">
+        <v>10.47527</v>
+      </c>
+      <c r="G62" s="11">
+        <v>10.475266</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="2"/>
+        <v>10.475265379020655</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="3"/>
+        <v>14.007333305336211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1.956725</v>
+      </c>
+      <c r="B63">
+        <v>0.94958480000000001</v>
+      </c>
+      <c r="C63">
+        <v>4.2314439999999998</v>
+      </c>
+      <c r="D63" s="8">
+        <v>4.0031746999999998</v>
+      </c>
+      <c r="E63" s="9">
+        <v>3.6318559000000001</v>
+      </c>
+      <c r="F63" s="10">
+        <v>54.77176</v>
+      </c>
+      <c r="G63" s="11">
+        <v>54.771756000000003</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="2"/>
+        <v>54.771758211183531</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="3"/>
+        <v>37.782872822088663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.74642240000000004</v>
+      </c>
+      <c r="B64">
+        <v>0.416937</v>
+      </c>
+      <c r="C64">
+        <v>3.9880849999999999</v>
+      </c>
+      <c r="D64" s="8">
+        <v>3.1415676000000001</v>
+      </c>
+      <c r="E64" s="9">
+        <v>2.7499416999999999</v>
+      </c>
+      <c r="F64" s="10">
+        <v>23.14011</v>
+      </c>
+      <c r="G64" s="11">
+        <v>23.140111999999998</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="2"/>
+        <v>23.140112882620961</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="3"/>
+        <v>15.641719945332598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.1329843</v>
+      </c>
+      <c r="B65">
+        <v>2.1331349999999998</v>
+      </c>
+      <c r="C65">
+        <v>2.4575300000000002</v>
+      </c>
+      <c r="D65" s="8">
+        <v>2.2839806</v>
+      </c>
+      <c r="E65" s="9">
+        <v>2.7143644</v>
+      </c>
+      <c r="F65" s="10">
+        <v>9.8156759999999998</v>
+      </c>
+      <c r="G65" s="11">
+        <v>9.8156756000000005</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8156750230566825</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="3"/>
+        <v>15.095012632123167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.1819105</v>
+      </c>
+      <c r="B66">
+        <v>0.54983070000000001</v>
+      </c>
+      <c r="C66">
+        <v>1.932294</v>
+      </c>
+      <c r="D66" s="8">
+        <v>2.4634789000000001</v>
+      </c>
+      <c r="E66" s="9">
+        <v>2.1945407000000001</v>
+      </c>
+      <c r="F66" s="10">
+        <v>11.7456</v>
+      </c>
+      <c r="G66" s="11">
+        <v>11.745602999999999</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" ref="H66:H101" si="4">EXP(D66)</f>
+        <v>11.745602321231715</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" ref="I66:I101" si="5">EXP(E66)</f>
+        <v>8.975877489383727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.14570459999999999</v>
+      </c>
+      <c r="B67">
+        <v>3.3157779999999999</v>
+      </c>
+      <c r="C67">
+        <v>2.3367830000000001</v>
+      </c>
+      <c r="D67" s="8">
+        <v>2.3815506000000002</v>
+      </c>
+      <c r="E67" s="9">
+        <v>2.9783498000000002</v>
+      </c>
+      <c r="F67" s="10">
+        <v>10.821669999999999</v>
+      </c>
+      <c r="G67" s="11">
+        <v>10.821669999999999</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="4"/>
+        <v>10.821669942468555</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="5"/>
+        <v>19.655354601533695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.32396609999999998</v>
+      </c>
+      <c r="B68">
+        <v>0.19042510000000001</v>
+      </c>
+      <c r="C68">
+        <v>2.2440560000000001</v>
+      </c>
+      <c r="D68" s="8">
+        <v>2.3425509999999998</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1.95096</v>
+      </c>
+      <c r="F68" s="10">
+        <v>10.40775</v>
+      </c>
+      <c r="G68" s="11">
+        <v>10.407753</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="4"/>
+        <v>10.407752904417379</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="5"/>
+        <v>7.0354383605225674</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1.7305969999999999</v>
+      </c>
+      <c r="B69">
+        <v>4.754823</v>
+      </c>
+      <c r="C69">
+        <v>4.3524539999999998</v>
+      </c>
+      <c r="D69" s="8">
+        <v>4.6972676</v>
+      </c>
+      <c r="E69" s="9">
+        <v>4.3719296999999999</v>
+      </c>
+      <c r="F69" s="10">
+        <v>109.6472</v>
+      </c>
+      <c r="G69" s="11">
+        <v>109.64716</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="4"/>
+        <v>109.64716285787917</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="5"/>
+        <v>79.196309459413968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.5767582</v>
+      </c>
+      <c r="B70">
+        <v>0.76639959999999996</v>
+      </c>
+      <c r="C70">
+        <v>3.8764850000000002</v>
+      </c>
+      <c r="D70" s="8">
+        <v>3.3750116000000001</v>
+      </c>
+      <c r="E70" s="9">
+        <v>2.9258430999999998</v>
+      </c>
+      <c r="F70" s="10">
+        <v>29.224620000000002</v>
+      </c>
+      <c r="G70" s="11">
+        <v>29.224623000000001</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="4"/>
+        <v>29.224622784893022</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="5"/>
+        <v>18.649943190511291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1.9849209999999999</v>
+      </c>
+      <c r="B71">
+        <v>0.36432530000000002</v>
+      </c>
+      <c r="C71">
+        <v>3.2439819999999999</v>
+      </c>
+      <c r="D71" s="8">
+        <v>3.1958964999999999</v>
+      </c>
+      <c r="E71" s="9">
+        <v>3.1629223</v>
+      </c>
+      <c r="F71" s="10">
+        <v>24.43207</v>
+      </c>
+      <c r="G71" s="11">
+        <v>24.432068999999998</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="4"/>
+        <v>24.432067225320093</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="5"/>
+        <v>23.639577024188171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.1280106</v>
+      </c>
+      <c r="B72">
+        <v>1.3781399999999999</v>
+      </c>
+      <c r="C72">
+        <v>2.2558370000000001</v>
+      </c>
+      <c r="D72" s="8">
+        <v>2.2340605</v>
+      </c>
+      <c r="E72" s="9">
+        <v>2.4786115</v>
+      </c>
+      <c r="F72" s="10">
+        <v>9.3377049999999997</v>
+      </c>
+      <c r="G72" s="11">
+        <v>9.3377049000000003</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="4"/>
+        <v>9.3377049560890253</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="5"/>
+        <v>11.924695477853493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1.54789</v>
+      </c>
+      <c r="B73">
+        <v>0.4813944</v>
+      </c>
+      <c r="C73">
+        <v>3.0110109999999999</v>
+      </c>
+      <c r="D73" s="8">
+        <v>3.4138126</v>
+      </c>
+      <c r="E73" s="9">
+        <v>3.1793111000000001</v>
+      </c>
+      <c r="F73" s="10">
+        <v>30.380849999999999</v>
+      </c>
+      <c r="G73" s="11">
+        <v>30.380852999999998</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="4"/>
+        <v>30.380853776044205</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="5"/>
+        <v>24.030193448325143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.1599891</v>
+      </c>
+      <c r="B74">
+        <v>6.8384179999999999</v>
+      </c>
+      <c r="C74">
+        <v>2.481992</v>
+      </c>
+      <c r="D74" s="8">
+        <v>2.4809299999999999</v>
+      </c>
+      <c r="E74" s="9">
+        <v>3.3838889000000001</v>
+      </c>
+      <c r="F74" s="10">
+        <v>11.95237</v>
+      </c>
+      <c r="G74" s="11">
+        <v>11.952375</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="4"/>
+        <v>11.952374959358711</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="5"/>
+        <v>29.485213488316884</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>6.0491979999999996</v>
+      </c>
+      <c r="B75">
+        <v>0.53163070000000001</v>
+      </c>
+      <c r="C75">
+        <v>3.5346479999999998</v>
+      </c>
+      <c r="D75" s="8">
+        <v>3.6124242</v>
+      </c>
+      <c r="E75" s="9">
+        <v>3.8975681999999998</v>
+      </c>
+      <c r="F75" s="10">
+        <v>37.055770000000003</v>
+      </c>
+      <c r="G75" s="11">
+        <v>37.055774999999997</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="4"/>
+        <v>37.05577462792651</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="5"/>
+        <v>49.282458185886561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.32856819999999998</v>
+      </c>
+      <c r="B76">
+        <v>1.0767899999999999</v>
+      </c>
+      <c r="C76">
+        <v>2.1856689999999999</v>
+      </c>
+      <c r="D76" s="8">
+        <v>3.0692346000000001</v>
+      </c>
+      <c r="E76" s="9">
+        <v>2.8186363999999999</v>
+      </c>
+      <c r="F76" s="10">
+        <v>21.52542</v>
+      </c>
+      <c r="G76" s="11">
+        <v>21.525421999999999</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="4"/>
+        <v>21.525420811108926</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="5"/>
+        <v>16.753989348955862</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1.755015</v>
+      </c>
+      <c r="B77">
+        <v>0.1642325</v>
+      </c>
+      <c r="C77">
+        <v>1.7942549999999999</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2.4357296000000002</v>
+      </c>
+      <c r="E77" s="9">
+        <v>2.7066485</v>
+      </c>
+      <c r="F77" s="10">
+        <v>11.424149999999999</v>
+      </c>
+      <c r="G77" s="11">
+        <v>11.424151</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="4"/>
+        <v>11.424150733851683</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="5"/>
+        <v>14.978989212329074</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2.9171119999999999</v>
+      </c>
+      <c r="B78">
+        <v>1.064924</v>
+      </c>
+      <c r="C78">
+        <v>3.8293149999999998</v>
+      </c>
+      <c r="D78" s="8">
+        <v>4.1803661999999999</v>
+      </c>
+      <c r="E78" s="9">
+        <v>3.8847863999999999</v>
+      </c>
+      <c r="F78" s="10">
+        <v>65.389790000000005</v>
+      </c>
+      <c r="G78" s="11">
+        <v>65.389792</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="4"/>
+        <v>65.389794572852139</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="5"/>
+        <v>48.656548310715671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1.280446</v>
+      </c>
+      <c r="B79">
+        <v>0.1196845</v>
+      </c>
+      <c r="C79">
+        <v>1.514545</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2.1193447999999999</v>
+      </c>
+      <c r="E79" s="9">
+        <v>2.3947129</v>
+      </c>
+      <c r="F79" s="10">
+        <v>8.3256809999999994</v>
+      </c>
+      <c r="G79" s="11">
+        <v>8.3256812</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="4"/>
+        <v>8.3256807142399492</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="5"/>
+        <v>10.965049541408996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.64985470000000001</v>
+      </c>
+      <c r="B80">
+        <v>0.93786740000000002</v>
+      </c>
+      <c r="C80">
+        <v>2.9776359999999999</v>
+      </c>
+      <c r="D80" s="8">
+        <v>3.5278573999999998</v>
+      </c>
+      <c r="E80" s="9">
+        <v>3.0847180000000001</v>
+      </c>
+      <c r="F80" s="10">
+        <v>34.050930000000001</v>
+      </c>
+      <c r="G80" s="11">
+        <v>34.050933000000001</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="4"/>
+        <v>34.050931872873903</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="5"/>
+        <v>21.861301085838285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4.4230200000000002</v>
+      </c>
+      <c r="B81">
+        <v>4.1196770000000003</v>
+      </c>
+      <c r="C81">
+        <v>5.7031450000000001</v>
+      </c>
+      <c r="D81" s="8">
+        <v>5.2413305000000001</v>
+      </c>
+      <c r="E81" s="9">
+        <v>4.7612116999999996</v>
+      </c>
+      <c r="F81" s="10">
+        <v>188.9213</v>
+      </c>
+      <c r="G81" s="11">
+        <v>188.92129</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="4"/>
+        <v>188.92129504576482</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="5"/>
+        <v>116.8874726761982</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.17120959999999999</v>
+      </c>
+      <c r="B82">
+        <v>2.2135950000000002</v>
+      </c>
+      <c r="C82">
+        <v>2.663008</v>
+      </c>
+      <c r="D82" s="8">
+        <v>2.5310431000000002</v>
+      </c>
+      <c r="E82" s="9">
+        <v>2.8567575000000001</v>
+      </c>
+      <c r="F82" s="10">
+        <v>12.566610000000001</v>
+      </c>
+      <c r="G82" s="11">
+        <v>12.566608</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="4"/>
+        <v>12.566607530763561</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="5"/>
+        <v>17.404999629910488</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2.5470660000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.90483880000000005</v>
+      </c>
+      <c r="C83">
+        <v>3.516896</v>
+      </c>
+      <c r="D83" s="8">
+        <v>4.0224880000000001</v>
+      </c>
+      <c r="E83" s="9">
+        <v>3.7372768999999999</v>
+      </c>
+      <c r="F83" s="10">
+        <v>55.839860000000002</v>
+      </c>
+      <c r="G83" s="11">
+        <v>55.839863999999999</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="4"/>
+        <v>55.839862720090856</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="5"/>
+        <v>41.983509070455241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5.1532039999999997</v>
+      </c>
+      <c r="B84">
+        <v>1.3321160000000001</v>
+      </c>
+      <c r="C84">
+        <v>4.5257519999999998</v>
+      </c>
+      <c r="D84" s="8">
+        <v>4.4575009000000003</v>
+      </c>
+      <c r="E84" s="9">
+        <v>4.2752723000000001</v>
+      </c>
+      <c r="F84" s="10">
+        <v>86.271640000000005</v>
+      </c>
+      <c r="G84" s="11">
+        <v>86.271635000000003</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="4"/>
+        <v>86.271638016406612</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="5"/>
+        <v>71.899714936693741</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.16509850000000001</v>
+      </c>
+      <c r="B85">
+        <v>6.3752100000000006E-2</v>
+      </c>
+      <c r="C85">
+        <v>1.0496749999999999</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1.3538596000000001</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1.0764682999999999</v>
+      </c>
+      <c r="F85" s="10">
+        <v>3.8723420000000002</v>
+      </c>
+      <c r="G85" s="11">
+        <v>3.8723424999999998</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8723424183676176</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9342981690489562</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1.664857</v>
+      </c>
+      <c r="B86">
+        <v>1.852641</v>
+      </c>
+      <c r="C86">
+        <v>4.2506320000000004</v>
+      </c>
+      <c r="D86" s="8">
+        <v>4.3552391000000004</v>
+      </c>
+      <c r="E86" s="9">
+        <v>3.8846348000000002</v>
+      </c>
+      <c r="F86" s="10">
+        <v>77.885440000000003</v>
+      </c>
+      <c r="G86" s="11">
+        <v>77.885446999999999</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="4"/>
+        <v>77.88544552072041</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="5"/>
+        <v>48.649172537089548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.76132880000000003</v>
+      </c>
+      <c r="B87">
+        <v>1.9085989999999999</v>
+      </c>
+      <c r="C87">
+        <v>4.0769440000000001</v>
+      </c>
+      <c r="D87" s="8">
+        <v>3.8559774999999998</v>
+      </c>
+      <c r="E87" s="9">
+        <v>3.5154234999999998</v>
+      </c>
+      <c r="F87" s="10">
+        <v>47.274810000000002</v>
+      </c>
+      <c r="G87" s="11">
+        <v>47.274807000000003</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="4"/>
+        <v>47.274805485307922</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="5"/>
+        <v>33.630167284370295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.15802140000000001</v>
+      </c>
+      <c r="B88">
+        <v>2.8133249999999999</v>
+      </c>
+      <c r="C88">
+        <v>4.347461</v>
+      </c>
+      <c r="D88" s="8">
+        <v>2.4586530999999998</v>
+      </c>
+      <c r="E88" s="9">
+        <v>2.9365334000000001</v>
+      </c>
+      <c r="F88" s="10">
+        <v>11.68906</v>
+      </c>
+      <c r="G88" s="11">
+        <v>11.689057</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="4"/>
+        <v>11.689056941633662</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="5"/>
+        <v>18.850386167053244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.2629262</v>
+      </c>
+      <c r="B89">
+        <v>5.5101400000000002E-2</v>
+      </c>
+      <c r="C89">
+        <v>1.8832880000000001</v>
+      </c>
+      <c r="D89" s="8">
+        <v>1.2952561</v>
+      </c>
+      <c r="E89" s="9">
+        <v>1.232389</v>
+      </c>
+      <c r="F89" s="10">
+        <v>3.6519309999999998</v>
+      </c>
+      <c r="G89" s="11">
+        <v>3.6519309999999998</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6519311139497908</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4294126244587284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.1573688</v>
+      </c>
+      <c r="B90">
+        <v>0.62389799999999995</v>
+      </c>
+      <c r="C90">
+        <v>2.2242540000000002</v>
+      </c>
+      <c r="D90" s="8">
+        <v>2.3623487000000001</v>
+      </c>
+      <c r="E90" s="9">
+        <v>2.1862045000000001</v>
+      </c>
+      <c r="F90" s="10">
+        <v>10.61586</v>
+      </c>
+      <c r="G90" s="11">
+        <v>10.615856000000001</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="4"/>
+        <v>10.615855654911849</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="5"/>
+        <v>8.9013637915105868</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.83347510000000002</v>
+      </c>
+      <c r="B91">
+        <v>6.6752800000000001E-2</v>
+      </c>
+      <c r="C91">
+        <v>1.3609450000000001</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1.5401746000000001</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1.8939119</v>
+      </c>
+      <c r="F91" s="10">
+        <v>4.6654049999999998</v>
+      </c>
+      <c r="G91" s="11">
+        <v>4.6654049999999998</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6654047795539695</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6453137034667611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.21208170000000001</v>
+      </c>
+      <c r="B92">
+        <v>1.6609830000000001</v>
+      </c>
+      <c r="C92">
+        <v>2.7729910000000002</v>
+      </c>
+      <c r="D92" s="8">
+        <v>2.7237922000000001</v>
+      </c>
+      <c r="E92" s="9">
+        <v>2.8191290000000002</v>
+      </c>
+      <c r="F92" s="10">
+        <v>15.238</v>
+      </c>
+      <c r="G92" s="11">
+        <v>15.237999</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="4"/>
+        <v>15.237998353521727</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="5"/>
+        <v>16.762244397160607</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5.4846700000000004</v>
+      </c>
+      <c r="B93">
+        <v>1.7617119999999999</v>
+      </c>
+      <c r="C93">
+        <v>4.7484529999999996</v>
+      </c>
+      <c r="D93" s="8">
+        <v>4.7060433000000002</v>
+      </c>
+      <c r="E93" s="9">
+        <v>4.4447397999999998</v>
+      </c>
+      <c r="F93" s="10">
+        <v>110.61360000000001</v>
+      </c>
+      <c r="G93" s="11">
+        <v>110.61363</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="4"/>
+        <v>110.61362796638113</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="5"/>
+        <v>85.177711713047117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.21725079999999999</v>
+      </c>
+      <c r="B94">
+        <v>0.3323506</v>
+      </c>
+      <c r="C94">
+        <v>1.994157</v>
+      </c>
+      <c r="D94" s="8">
+        <v>2.4544573000000001</v>
+      </c>
+      <c r="E94" s="9">
+        <v>2.0315555999999999</v>
+      </c>
+      <c r="F94" s="10">
+        <v>11.64011</v>
+      </c>
+      <c r="G94" s="11">
+        <v>11.640114000000001</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="4"/>
+        <v>11.640114744155241</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="5"/>
+        <v>7.6259400489295031</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.98932500000000001</v>
+      </c>
+      <c r="B95">
+        <v>0.28266790000000003</v>
+      </c>
+      <c r="C95">
+        <v>3.231169</v>
+      </c>
+      <c r="D95" s="8">
+        <v>2.8939626000000001</v>
+      </c>
+      <c r="E95" s="9">
+        <v>2.6951076</v>
+      </c>
+      <c r="F95" s="10">
+        <v>18.06475</v>
+      </c>
+      <c r="G95" s="11">
+        <v>18.064751999999999</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="4"/>
+        <v>18.064751344219491</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="5"/>
+        <v>14.807111912816026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1.4753309999999999</v>
+      </c>
+      <c r="B96">
+        <v>1.330708</v>
+      </c>
+      <c r="C96">
+        <v>4.571402</v>
+      </c>
+      <c r="D96" s="8">
+        <v>4.1257960999999996</v>
+      </c>
+      <c r="E96" s="9">
+        <v>3.6609186999999999</v>
+      </c>
+      <c r="F96" s="10">
+        <v>61.917079999999999</v>
+      </c>
+      <c r="G96" s="11">
+        <v>61.917082000000001</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="4"/>
+        <v>61.917081823657568</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="5"/>
+        <v>38.897061191726607</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.2614668</v>
+      </c>
+      <c r="B97">
+        <v>0.40239160000000002</v>
+      </c>
+      <c r="C97">
+        <v>2.7374679999999998</v>
+      </c>
+      <c r="D97" s="8">
+        <v>2.6419374000000002</v>
+      </c>
+      <c r="E97" s="9">
+        <v>2.2174858</v>
+      </c>
+      <c r="F97" s="10">
+        <v>14.040380000000001</v>
+      </c>
+      <c r="G97" s="11">
+        <v>14.040379</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="4"/>
+        <v>14.040379104806943</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="5"/>
+        <v>9.1842108709437316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.63293529999999998</v>
+      </c>
+      <c r="B98">
+        <v>3.8017850000000002</v>
+      </c>
+      <c r="C98">
+        <v>3.6197680000000001</v>
+      </c>
+      <c r="D98" s="8">
+        <v>3.7987628999999998</v>
+      </c>
+      <c r="E98" s="9">
+        <v>3.7671473</v>
+      </c>
+      <c r="F98" s="10">
+        <v>44.645919999999997</v>
+      </c>
+      <c r="G98" s="11">
+        <v>44.645918000000002</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="4"/>
+        <v>44.645918849576368</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="5"/>
+        <v>43.256490868425495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.2557932</v>
+      </c>
+      <c r="B99">
+        <v>0.33532060000000002</v>
+      </c>
+      <c r="C99">
+        <v>2.292713</v>
+      </c>
+      <c r="D99" s="8">
+        <v>2.5562333000000002</v>
+      </c>
+      <c r="E99" s="9">
+        <v>2.1161273</v>
+      </c>
+      <c r="F99" s="10">
+        <v>12.887180000000001</v>
+      </c>
+      <c r="G99" s="11">
+        <v>12.887184</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="4"/>
+        <v>12.887183624224505</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="5"/>
+        <v>8.2989358853578992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2.72437</v>
+      </c>
+      <c r="B100">
+        <v>31.5595</v>
+      </c>
+      <c r="C100">
+        <v>5.0262710000000004</v>
+      </c>
+      <c r="D100" s="8">
+        <v>5.2946077000000002</v>
+      </c>
+      <c r="E100" s="9">
+        <v>5.5349918999999996</v>
+      </c>
+      <c r="F100" s="10">
+        <v>199.2594</v>
+      </c>
+      <c r="G100" s="11">
+        <v>199.25944000000001</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="4"/>
+        <v>199.25944115285805</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="5"/>
+        <v>253.40573504232214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.94686499999999996</v>
+      </c>
+      <c r="B101">
+        <v>3.80443</v>
+      </c>
+      <c r="C101">
+        <v>3.3637039999999998</v>
+      </c>
+      <c r="D101" s="8">
+        <v>4.1587310000000004</v>
+      </c>
+      <c r="E101" s="9">
+        <v>3.9651706999999998</v>
+      </c>
+      <c r="F101" s="10">
+        <v>63.990259999999999</v>
+      </c>
+      <c r="G101" s="11">
+        <v>63.990265999999998</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="4"/>
+        <v>63.990267405082655</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="5"/>
+        <v>52.72926950777034</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E103" s="1"/>
       <c r="G103" s="1"/>
     </row>
   </sheetData>
@@ -8777,20 +13527,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7e19eaff-87d4-4d83-918d-3b90d0878bc5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7e19eaff-87d4-4d83-918d-3b90d0878bc5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8812,14 +13562,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3DBDB23-E624-4A95-843E-A1E22734CC04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09EA51D-AA1B-44AB-8750-FE194641A832}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8833,4 +13575,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3DBDB23-E624-4A95-843E-A1E22734CC04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>